--- a/biology/Zoologie/Chamelea/Chamelea.xlsx
+++ b/biology/Zoologie/Chamelea/Chamelea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamelea est un genre de mollusques bivalves de la famille des Veneridae.
 </t>
@@ -511,15 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chamelea a été décrit par le malacologiste suédois Otto Andreas Lowson Mørch en 1853.
-Synonymie
-Hermione Leach  1852
-Ortygia T. Brown, 1827
-Plurigens Finlay, 1930
-Nom vernaculaire
-Ces mollusques sont appelés vénus.
 </t>
         </is>
       </c>
@@ -545,12 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hermione Leach  1852
+Ortygia T. Brown, 1827
+Plurigens Finlay, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chamelea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamelea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces mollusques sont appelés vénus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chamelea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamelea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016) :
 Chamelea gallina (Linnaeus, 1758)
 Chamelea radiata (Brocchi, 1814) † espèce éteinte
 Chamelea striatula (da Costa, 1778)</t>
